--- a/Data/Screeners/FD2021-12.xlsx
+++ b/Data/Screeners/FD2021-12.xlsx
@@ -21,6 +21,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-17" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-19" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-28" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1158,6 +1162,410 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MU </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WDFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWCH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VREX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MU </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADP </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QLYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVMI </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KLAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXLS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2021-12.xlsx
+++ b/Data/Screeners/FD2021-12.xlsx
@@ -25,6 +25,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-23" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-24" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-28" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-29" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-31" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1566,6 +1569,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEOG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1634,6 +1703,168 @@
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WDC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MU </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PHM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRE </t>
         </is>
       </c>
     </row>
